--- a/REyeker-DataAnalyses-Python/data/aoi_categorized/AOI_TI_ReverseString.xlsx
+++ b/REyeker-DataAnalyses-Python/data/aoi_categorized/AOI_TI_ReverseString.xlsx
@@ -404,281 +404,326 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2">
+    <row r="2" spans="1:6">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
         <v>59</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>86</v>
       </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
       <c r="D2">
-        <v>784</v>
-      </c>
-      <c r="E2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>784</v>
+      </c>
+      <c r="F2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3">
+    <row r="3" spans="1:6">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
         <v>87</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>114</v>
       </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
       <c r="D3">
-        <v>784</v>
-      </c>
-      <c r="E3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>784</v>
+      </c>
+      <c r="F3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4">
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
         <v>115</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>142</v>
       </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
       <c r="D4">
-        <v>784</v>
-      </c>
-      <c r="E4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>784</v>
+      </c>
+      <c r="F4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5">
+    <row r="5" spans="1:6">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
         <v>143</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>170</v>
       </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
       <c r="D5">
-        <v>784</v>
-      </c>
-      <c r="E5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>784</v>
+      </c>
+      <c r="F5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6">
+    <row r="6" spans="1:6">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
         <v>171</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>198</v>
       </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
       <c r="D6">
-        <v>784</v>
-      </c>
-      <c r="E6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>784</v>
+      </c>
+      <c r="F6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7">
+    <row r="7" spans="1:6">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
         <v>227</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>254</v>
       </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
       <c r="D7">
-        <v>784</v>
-      </c>
-      <c r="E7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>784</v>
+      </c>
+      <c r="F7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
-      <c r="A8">
+    <row r="8" spans="1:6">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
         <v>255</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>282</v>
       </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
       <c r="D8">
-        <v>784</v>
-      </c>
-      <c r="E8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>784</v>
+      </c>
+      <c r="F8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
-      <c r="A9">
+    <row r="9" spans="1:6">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9">
         <v>283</v>
       </c>
-      <c r="B9">
+      <c r="C9">
         <v>310</v>
       </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
       <c r="D9">
-        <v>784</v>
-      </c>
-      <c r="E9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>784</v>
+      </c>
+      <c r="F9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
-      <c r="A10">
+    <row r="10" spans="1:6">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10">
         <v>311</v>
       </c>
-      <c r="B10">
+      <c r="C10">
         <v>338</v>
       </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
       <c r="D10">
-        <v>784</v>
-      </c>
-      <c r="E10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>784</v>
+      </c>
+      <c r="F10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
-      <c r="A11">
+    <row r="11" spans="1:6">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
         <v>367</v>
       </c>
-      <c r="B11">
+      <c r="C11">
         <v>394</v>
       </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
       <c r="D11">
-        <v>784</v>
-      </c>
-      <c r="E11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>784</v>
+      </c>
+      <c r="F11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
-      <c r="A12">
+    <row r="12" spans="1:6">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
         <v>395</v>
       </c>
-      <c r="B12">
+      <c r="C12">
         <v>422</v>
       </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
       <c r="D12">
-        <v>784</v>
-      </c>
-      <c r="E12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>784</v>
+      </c>
+      <c r="F12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
-      <c r="A13">
+    <row r="13" spans="1:6">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13">
         <v>423</v>
       </c>
-      <c r="B13">
+      <c r="C13">
         <v>450</v>
       </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
       <c r="D13">
-        <v>784</v>
-      </c>
-      <c r="E13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>784</v>
+      </c>
+      <c r="F13" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
-      <c r="A14">
+    <row r="14" spans="1:6">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14">
         <v>451</v>
       </c>
-      <c r="B14">
+      <c r="C14">
         <v>478</v>
       </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
       <c r="D14">
-        <v>784</v>
-      </c>
-      <c r="E14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>784</v>
+      </c>
+      <c r="F14" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
-      <c r="A15">
+    <row r="15" spans="1:6">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15">
         <v>479</v>
       </c>
-      <c r="B15">
+      <c r="C15">
         <v>506</v>
       </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
       <c r="D15">
-        <v>784</v>
-      </c>
-      <c r="E15" t="s">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>784</v>
+      </c>
+      <c r="F15" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
-      <c r="A16">
+    <row r="16" spans="1:6">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16">
         <v>507</v>
       </c>
-      <c r="B16">
+      <c r="C16">
         <v>534</v>
       </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
       <c r="D16">
-        <v>784</v>
-      </c>
-      <c r="E16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>784</v>
+      </c>
+      <c r="F16" t="s">
         <v>10</v>
       </c>
     </row>

--- a/REyeker-DataAnalyses-Python/data/aoi_categorized/AOI_TI_ReverseString.xlsx
+++ b/REyeker-DataAnalyses-Python/data/aoi_categorized/AOI_TI_ReverseString.xlsx
@@ -404,326 +404,281 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1">
-        <v>0</v>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>59</v>
       </c>
       <c r="B2">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="C2">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>784</v>
-      </c>
-      <c r="F2" t="s">
+        <v>784</v>
+      </c>
+      <c r="E2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1">
-        <v>1</v>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>87</v>
       </c>
       <c r="B3">
-        <v>87</v>
+        <v>114</v>
       </c>
       <c r="C3">
-        <v>114</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>784</v>
-      </c>
-      <c r="F3" t="s">
+        <v>784</v>
+      </c>
+      <c r="E3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1">
-        <v>2</v>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>115</v>
       </c>
       <c r="B4">
-        <v>115</v>
+        <v>142</v>
       </c>
       <c r="C4">
-        <v>142</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>784</v>
-      </c>
-      <c r="F4" t="s">
+        <v>784</v>
+      </c>
+      <c r="E4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1">
-        <v>3</v>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>143</v>
       </c>
       <c r="B5">
-        <v>143</v>
+        <v>170</v>
       </c>
       <c r="C5">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>784</v>
-      </c>
-      <c r="F5" t="s">
+        <v>784</v>
+      </c>
+      <c r="E5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1">
-        <v>4</v>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>171</v>
       </c>
       <c r="B6">
-        <v>171</v>
+        <v>198</v>
       </c>
       <c r="C6">
-        <v>198</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>784</v>
-      </c>
-      <c r="F6" t="s">
+        <v>784</v>
+      </c>
+      <c r="E6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="1">
-        <v>5</v>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>227</v>
       </c>
       <c r="B7">
-        <v>227</v>
+        <v>254</v>
       </c>
       <c r="C7">
-        <v>254</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>784</v>
-      </c>
-      <c r="F7" t="s">
+        <v>784</v>
+      </c>
+      <c r="E7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="1">
-        <v>6</v>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>255</v>
       </c>
       <c r="B8">
-        <v>255</v>
+        <v>282</v>
       </c>
       <c r="C8">
-        <v>282</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>784</v>
-      </c>
-      <c r="F8" t="s">
+        <v>784</v>
+      </c>
+      <c r="E8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="1">
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>283</v>
+      </c>
+      <c r="B9">
+        <v>310</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>784</v>
+      </c>
+      <c r="E9" t="s">
         <v>7</v>
       </c>
-      <c r="B9">
-        <v>283</v>
-      </c>
-      <c r="C9">
-        <v>310</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>784</v>
-      </c>
-      <c r="F9" t="s">
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>311</v>
+      </c>
+      <c r="B10">
+        <v>338</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>784</v>
+      </c>
+      <c r="E10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="1">
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>367</v>
+      </c>
+      <c r="B11">
+        <v>394</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>784</v>
+      </c>
+      <c r="E11" t="s">
         <v>8</v>
       </c>
-      <c r="B10">
-        <v>311</v>
-      </c>
-      <c r="C10">
-        <v>338</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>784</v>
-      </c>
-      <c r="F10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="1">
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>395</v>
+      </c>
+      <c r="B12">
+        <v>422</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>784</v>
+      </c>
+      <c r="E12" t="s">
         <v>9</v>
       </c>
-      <c r="B11">
-        <v>367</v>
-      </c>
-      <c r="C11">
-        <v>394</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>784</v>
-      </c>
-      <c r="F11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>395</v>
-      </c>
-      <c r="C12">
-        <v>422</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>784</v>
-      </c>
-      <c r="F12" t="s">
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <v>423</v>
+      </c>
+      <c r="B13">
+        <v>450</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>784</v>
+      </c>
+      <c r="E13" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>423</v>
-      </c>
-      <c r="C13">
-        <v>450</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>784</v>
-      </c>
-      <c r="F13" t="s">
+    <row r="14" spans="1:5">
+      <c r="A14">
+        <v>451</v>
+      </c>
+      <c r="B14">
+        <v>478</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>784</v>
+      </c>
+      <c r="E14" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>451</v>
-      </c>
-      <c r="C14">
-        <v>478</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>784</v>
-      </c>
-      <c r="F14" t="s">
+    <row r="15" spans="1:5">
+      <c r="A15">
+        <v>479</v>
+      </c>
+      <c r="B15">
+        <v>506</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>784</v>
+      </c>
+      <c r="E15" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15">
-        <v>479</v>
-      </c>
-      <c r="C15">
-        <v>506</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>784</v>
-      </c>
-      <c r="F15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="1">
-        <v>14</v>
+    <row r="16" spans="1:5">
+      <c r="A16">
+        <v>507</v>
       </c>
       <c r="B16">
-        <v>507</v>
+        <v>534</v>
       </c>
       <c r="C16">
-        <v>534</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>784</v>
-      </c>
-      <c r="F16" t="s">
+        <v>784</v>
+      </c>
+      <c r="E16" t="s">
         <v>10</v>
       </c>
     </row>
